--- a/States roles.xlsx
+++ b/States roles.xlsx
@@ -3434,7 +3434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="101">
   <si>
     <t>CODIGO</t>
   </si>
@@ -4158,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,7 +4393,9 @@
         <v>94</v>
       </c>
       <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">

--- a/States roles.xlsx
+++ b/States roles.xlsx
@@ -3429,12 +3429,804 @@
         </r>
       </text>
     </comment>
+    <comment ref="C51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin del sistema.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gerente de todas las sucursales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una sucursal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador Jefe de cajas dentro de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin del sistema.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gerente de todas las sucursales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una sucursal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin del sistema.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gerente de todas las sucursales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una sucursal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin del sistema.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gerente de todas las sucursales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una sucursal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador de plataforma dentro de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador Jefe de cajas dentro de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador de una caja, en una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin del sistema.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gerente de todas las sucursales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una sucursal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador de plataforma dentro de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador Jefe de cajas dentro de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador de una caja, en una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin del sistema.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gerente de todas las sucursales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una sucursal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador Jefe de cajas dentro de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin del sistema.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="116">
   <si>
     <t>CODIGO</t>
   </si>
@@ -3737,6 +4529,51 @@
   </si>
   <si>
     <t xml:space="preserve"> -Usuario</t>
+  </si>
+  <si>
+    <t>TRABAJADOR</t>
+  </si>
+  <si>
+    <t>app.organizacion.rrhh.buscarTrabajador</t>
+  </si>
+  <si>
+    <t>app.organizacion.rrhh.crearTrabajador</t>
+  </si>
+  <si>
+    <t>app.organizacion.rrhh.crearTrabajador.datosPrincipales</t>
+  </si>
+  <si>
+    <t>app.organizacion.rrhh.editarTrabajador</t>
+  </si>
+  <si>
+    <t>app.organizacion.rrhh.editarTrabajador.resumen</t>
+  </si>
+  <si>
+    <t>app.organizacion.rrhh.editarTrabajador.datosPrincipales</t>
+  </si>
+  <si>
+    <t>Desactivar trabajador</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estructura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Buscar sucursal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Buscar agencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Buscar boveda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Buscar caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rrhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Buscar trabajador</t>
   </si>
 </sst>
 </file>
@@ -3773,7 +4610,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3795,6 +4632,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3826,7 +4669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3853,6 +4696,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4156,10 +5002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,8 +5019,7 @@
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
@@ -4298,17 +5143,15 @@
       <c r="I5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="K5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4339,14 +5182,12 @@
         <v>81</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4381,21 +5222,17 @@
         <v>81</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4427,20 +5264,20 @@
         <v>81</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="11"/>
     </row>
@@ -4472,6 +5309,23 @@
       <c r="I9" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="K9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4501,27 +5355,15 @@
       <c r="I10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="K10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -4552,26 +5394,16 @@
         <v>81</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -4601,19 +5433,6 @@
       <c r="I12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4643,13 +5462,6 @@
       <c r="I13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -4696,7 +5508,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -4724,8 +5536,29 @@
       <c r="I17" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="K17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -4753,8 +5586,29 @@
       <c r="I18" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="K18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -4782,8 +5636,21 @@
       <c r="I19" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -4811,8 +5678,15 @@
       <c r="I20" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -4841,7 +5715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -4870,7 +5744,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -4899,7 +5773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -4928,7 +5802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -4957,7 +5831,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -4986,7 +5860,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>52</v>
@@ -4999,7 +5873,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -5028,7 +5902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -5057,7 +5931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -5086,7 +5960,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -5537,11 +6411,236 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="7"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/States roles.xlsx
+++ b/States roles.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos\Documents\GitHub\SistCoopEE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -21,7 +26,7 @@
     <author>Huertas</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -429,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -549,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -597,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
+    <comment ref="D10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -717,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -741,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -765,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -789,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -813,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -837,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -861,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -885,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -909,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -957,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -981,7 +986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1005,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0">
+    <comment ref="E17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1029,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1077,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1101,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1149,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1197,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0">
+    <comment ref="D20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1245,7 +1250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1269,7 +1274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1293,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0">
+    <comment ref="C21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1317,7 +1322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0">
+    <comment ref="D21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1341,7 +1346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1365,7 +1370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="F21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1389,7 +1394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="C22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1413,7 +1418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1437,7 +1442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1461,7 +1466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1485,7 +1490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1509,7 +1514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1533,7 +1538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="E23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1557,7 +1562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0">
+    <comment ref="F23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1581,7 +1586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0">
+    <comment ref="C24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1605,7 +1610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1629,7 +1634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0">
+    <comment ref="F24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1677,7 +1682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0">
+    <comment ref="C25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1701,7 +1706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1725,7 +1730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0">
+    <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1749,7 +1754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0">
+    <comment ref="F25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1773,7 +1778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1797,7 +1802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1821,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0">
+    <comment ref="D29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1845,7 +1850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0">
+    <comment ref="E29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1869,7 +1874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0">
+    <comment ref="F29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1893,7 +1898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="0">
+    <comment ref="H29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0">
+    <comment ref="C30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1941,7 +1946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0">
+    <comment ref="D30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1965,7 +1970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0">
+    <comment ref="E30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1989,7 +1994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F30" authorId="0">
+    <comment ref="F30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2013,7 +2018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H30" authorId="0">
+    <comment ref="H30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2037,7 +2042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0">
+    <comment ref="C31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2061,7 +2066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0">
+    <comment ref="D31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2085,7 +2090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2109,7 +2114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="0">
+    <comment ref="F31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2133,7 +2138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H31" authorId="0">
+    <comment ref="H31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2157,7 +2162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="C32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2181,7 +2186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0">
+    <comment ref="D32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2205,7 +2210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0">
+    <comment ref="E32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2229,7 +2234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0">
+    <comment ref="F32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2253,7 +2258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H32" authorId="0">
+    <comment ref="H32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2277,7 +2282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2301,7 +2306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0">
+    <comment ref="D33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2325,7 +2330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0">
+    <comment ref="E33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2349,7 +2354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0">
+    <comment ref="F33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2373,7 +2378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H33" authorId="0">
+    <comment ref="H33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2397,7 +2402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0">
+    <comment ref="C34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2421,7 +2426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0">
+    <comment ref="D34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2445,7 +2450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0">
+    <comment ref="E34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2469,7 +2474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F34" authorId="0">
+    <comment ref="F34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2493,7 +2498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H34" authorId="0">
+    <comment ref="H34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2517,7 +2522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H35" authorId="0">
+    <comment ref="H35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2541,7 +2546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H36" authorId="0">
+    <comment ref="H36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2565,7 +2570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0">
+    <comment ref="C37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2589,7 +2594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0">
+    <comment ref="C40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2613,7 +2618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0">
+    <comment ref="D40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2637,7 +2642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0">
+    <comment ref="E40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2661,7 +2666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0">
+    <comment ref="F40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2685,7 +2690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H40" authorId="0">
+    <comment ref="H40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2709,7 +2714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2733,7 +2738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0">
+    <comment ref="D41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2757,7 +2762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0">
+    <comment ref="E41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2781,7 +2786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0">
+    <comment ref="F41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2805,7 +2810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H41" authorId="0">
+    <comment ref="H41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2829,7 +2834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0">
+    <comment ref="C42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2853,7 +2858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0">
+    <comment ref="D42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2877,7 +2882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0">
+    <comment ref="E42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2901,7 +2906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="0">
+    <comment ref="F42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2925,7 +2930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H42" authorId="0">
+    <comment ref="H42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2949,7 +2954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0">
+    <comment ref="C43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2973,7 +2978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0">
+    <comment ref="D43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2997,7 +3002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0">
+    <comment ref="E43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3021,7 +3026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0">
+    <comment ref="F43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3045,7 +3050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="0">
+    <comment ref="H43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3069,7 +3074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="0">
+    <comment ref="I43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3093,7 +3098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0">
+    <comment ref="C44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3117,7 +3122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0">
+    <comment ref="D44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3141,7 +3146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0">
+    <comment ref="E44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3165,7 +3170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0">
+    <comment ref="F44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3189,7 +3194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H44" authorId="0">
+    <comment ref="H44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3213,7 +3218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="0">
+    <comment ref="I44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3237,7 +3242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0">
+    <comment ref="C45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3261,7 +3266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D45" authorId="0">
+    <comment ref="D45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3285,7 +3290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0">
+    <comment ref="E45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3309,7 +3314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="0">
+    <comment ref="F45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3333,7 +3338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H45" authorId="0">
+    <comment ref="H45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3357,7 +3362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="0">
+    <comment ref="H46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3381,7 +3386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0">
+    <comment ref="I47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3405,7 +3410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0">
+    <comment ref="C48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3429,7 +3434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0">
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3453,7 +3458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0">
+    <comment ref="D51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3477,7 +3482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="E51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3501,7 +3506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0">
+    <comment ref="F51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3525,7 +3530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H51" authorId="0">
+    <comment ref="H51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3549,7 +3554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0">
+    <comment ref="C52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3573,7 +3578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D52" authorId="0">
+    <comment ref="D52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3597,7 +3602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0">
+    <comment ref="E52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3621,7 +3626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0">
+    <comment ref="F52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3645,7 +3650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0">
+    <comment ref="C53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3669,7 +3674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D53" authorId="0">
+    <comment ref="D53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3693,7 +3698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="0">
+    <comment ref="E53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3717,7 +3722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="0">
+    <comment ref="F53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3741,7 +3746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0">
+    <comment ref="C54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3765,7 +3770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0">
+    <comment ref="D54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3789,7 +3794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0">
+    <comment ref="E54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3813,7 +3818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F54" authorId="0">
+    <comment ref="F54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3837,7 +3842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G54" authorId="0">
+    <comment ref="G54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3861,7 +3866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H54" authorId="0">
+    <comment ref="H54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3885,7 +3890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I54" authorId="0">
+    <comment ref="I54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3909,7 +3914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0">
+    <comment ref="C55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3933,7 +3938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D55" authorId="0">
+    <comment ref="D55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3957,7 +3962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0">
+    <comment ref="E55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3981,7 +3986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0">
+    <comment ref="F55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4005,7 +4010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G55" authorId="0">
+    <comment ref="G55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4029,7 +4034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H55" authorId="0">
+    <comment ref="H55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4053,7 +4058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I55" authorId="0">
+    <comment ref="I55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4077,7 +4082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0">
+    <comment ref="C56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4101,7 +4106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0">
+    <comment ref="D56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4125,7 +4130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0">
+    <comment ref="E56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4149,7 +4154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0">
+    <comment ref="F56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4173,31 +4178,199 @@
         </r>
       </text>
     </comment>
-    <comment ref="H56" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Huertas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Trabajador Jefe de cajas dentro de una agencia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C57" authorId="0">
+    <comment ref="C57" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin del sistema.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D57" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gerente de todas las sucursales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E57" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una sucursal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F57" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C58" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin del sistema.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D58" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gerente de todas las sucursales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E58" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una sucursal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F58" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4226,7 +4399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="121">
   <si>
     <t>CODIGO</t>
   </si>
@@ -4574,6 +4747,21 @@
   </si>
   <si>
     <t xml:space="preserve">  -Buscar trabajador</t>
+  </si>
+  <si>
+    <t>hecho</t>
+  </si>
+  <si>
+    <t>falta</t>
+  </si>
+  <si>
+    <t>haciendo</t>
+  </si>
+  <si>
+    <t>app.organizacion.rrhh.editarTrabajador.accesoAlSistema</t>
+  </si>
+  <si>
+    <t>app.organizacion.rrhh.editarTrabajador.asignarCaja</t>
   </si>
 </sst>
 </file>
@@ -4711,6 +4899,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4758,7 +4949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4793,7 +4984,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5002,10 +5193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6594,8 +6785,8 @@
       <c r="G56" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H56" t="s">
-        <v>11</v>
+      <c r="H56" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>81</v>
@@ -6606,19 +6797,7 @@
         <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>81</v>
@@ -6632,15 +6811,78 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/States roles.xlsx
+++ b/States roles.xlsx
@@ -4274,6 +4274,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H57" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador Jefe de cajas dentro de una agencia</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C58" authorId="0" shapeId="0">
       <text>
         <r>
@@ -4367,6 +4391,30 @@
           </rPr>
           <t xml:space="preserve">
 Administrador de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H58" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador Jefe de cajas dentro de una agencia</t>
         </r>
       </text>
     </comment>
@@ -4399,7 +4447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="119">
   <si>
     <t>CODIGO</t>
   </si>
@@ -4750,12 +4798,6 @@
   </si>
   <si>
     <t>hecho</t>
-  </si>
-  <si>
-    <t>falta</t>
-  </si>
-  <si>
-    <t>haciendo</t>
   </si>
   <si>
     <t>app.organizacion.rrhh.editarTrabajador.accesoAlSistema</t>
@@ -5193,10 +5235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6797,35 +6839,63 @@
         <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>81</v>
+      <c r="H57" t="s">
+        <v>11</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>81</v>
+      <c r="H58" t="s">
+        <v>11</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="B59" t="s">
         <v>108</v>
       </c>
@@ -6851,23 +6921,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>118</v>
-      </c>
-    </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>117</v>
+      <c r="C62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>116</v>
@@ -6877,11 +6942,6 @@
       </c>
       <c r="I62" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/States roles.xlsx
+++ b/States roles.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos\Documents\GitHub\SistCoopEE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -26,7 +21,7 @@
     <author>Huertas</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -602,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -626,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -650,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -674,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0">
+    <comment ref="D10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -698,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -722,7 +717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -746,7 +741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -770,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -794,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -818,7 +813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -842,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -866,7 +861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -890,7 +885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -914,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0">
+    <comment ref="D16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -938,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -986,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0">
+    <comment ref="D17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0">
+    <comment ref="E17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1034,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0">
+    <comment ref="F19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment ref="C21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1322,7 +1317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0">
+    <comment ref="D21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1346,7 +1341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1370,7 +1365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0" shapeId="0">
+    <comment ref="F21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1394,7 +1389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1418,7 +1413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1442,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1466,7 +1461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0">
+    <comment ref="F22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1490,7 +1485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1514,7 +1509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1538,7 +1533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0" shapeId="0">
+    <comment ref="F23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1586,7 +1581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment ref="C24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1610,7 +1605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0">
+    <comment ref="D24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1634,7 +1629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0">
+    <comment ref="E24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1658,7 +1653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0" shapeId="0">
+    <comment ref="F24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1682,7 +1677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment ref="C25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1706,7 +1701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0">
+    <comment ref="D25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1730,7 +1725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0">
+    <comment ref="E25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1754,7 +1749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0" shapeId="0">
+    <comment ref="F25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1778,7 +1773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1802,7 +1797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1826,7 +1821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0">
+    <comment ref="D29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1850,7 +1845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1874,7 +1869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0" shapeId="0">
+    <comment ref="F29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1898,7 +1893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="0" shapeId="0">
+    <comment ref="H29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1922,7 +1917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1946,7 +1941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1970,7 +1965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0">
+    <comment ref="E30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1994,7 +1989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F30" authorId="0" shapeId="0">
+    <comment ref="F30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2018,7 +2013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H30" authorId="0" shapeId="0">
+    <comment ref="H30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2042,7 +2037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0">
+    <comment ref="C31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2066,7 +2061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0">
+    <comment ref="D31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2090,7 +2085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2114,7 +2109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="0" shapeId="0">
+    <comment ref="F31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2138,7 +2133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H31" authorId="0" shapeId="0">
+    <comment ref="H31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2162,7 +2157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2186,7 +2181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0">
+    <comment ref="D32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2210,7 +2205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0">
+    <comment ref="E32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2234,7 +2229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0">
+    <comment ref="F32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2258,7 +2253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H32" authorId="0" shapeId="0">
+    <comment ref="H32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2282,7 +2277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0" shapeId="0">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2306,7 +2301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0">
+    <comment ref="D33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2330,7 +2325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0" shapeId="0">
+    <comment ref="E33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2354,7 +2349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0" shapeId="0">
+    <comment ref="F33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2378,7 +2373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H33" authorId="0" shapeId="0">
+    <comment ref="H33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2402,7 +2397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0">
+    <comment ref="C34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2426,7 +2421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0" shapeId="0">
+    <comment ref="D34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2450,7 +2445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0" shapeId="0">
+    <comment ref="E34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2474,7 +2469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F34" authorId="0" shapeId="0">
+    <comment ref="F34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2498,7 +2493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H34" authorId="0" shapeId="0">
+    <comment ref="H34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2522,7 +2517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H35" authorId="0" shapeId="0">
+    <comment ref="H35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2546,7 +2541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H36" authorId="0" shapeId="0">
+    <comment ref="H36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2570,7 +2565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0" shapeId="0">
+    <comment ref="C37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2594,7 +2589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0">
+    <comment ref="C40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2618,7 +2613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0" shapeId="0">
+    <comment ref="D40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2642,7 +2637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0" shapeId="0">
+    <comment ref="E40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2666,7 +2661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0" shapeId="0">
+    <comment ref="F40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2690,7 +2685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H40" authorId="0" shapeId="0">
+    <comment ref="H40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2714,7 +2709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0">
+    <comment ref="C41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2738,7 +2733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0" shapeId="0">
+    <comment ref="D41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2762,7 +2757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0" shapeId="0">
+    <comment ref="E41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2786,7 +2781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0" shapeId="0">
+    <comment ref="F41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2810,7 +2805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H41" authorId="0" shapeId="0">
+    <comment ref="H41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2834,7 +2829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0">
+    <comment ref="C42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2858,7 +2853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0" shapeId="0">
+    <comment ref="D42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2882,7 +2877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0">
+    <comment ref="E42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2906,7 +2901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="0" shapeId="0">
+    <comment ref="F42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2930,7 +2925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H42" authorId="0" shapeId="0">
+    <comment ref="H42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2954,7 +2949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0" shapeId="0">
+    <comment ref="C43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2978,7 +2973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0" shapeId="0">
+    <comment ref="D43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3002,7 +2997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0" shapeId="0">
+    <comment ref="E43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3026,7 +3021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0" shapeId="0">
+    <comment ref="F43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3050,7 +3045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="0" shapeId="0">
+    <comment ref="H43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3074,7 +3069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="0" shapeId="0">
+    <comment ref="I43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3098,7 +3093,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0">
+    <comment ref="C44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3122,7 +3117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0">
+    <comment ref="D44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3146,7 +3141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0">
+    <comment ref="E44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3170,7 +3165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0">
+    <comment ref="F44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3194,7 +3189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H44" authorId="0" shapeId="0">
+    <comment ref="H44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3218,7 +3213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="0" shapeId="0">
+    <comment ref="I44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3242,7 +3237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0">
+    <comment ref="C45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3266,7 +3261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D45" authorId="0" shapeId="0">
+    <comment ref="D45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3290,7 +3285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0" shapeId="0">
+    <comment ref="E45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3314,7 +3309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="0" shapeId="0">
+    <comment ref="F45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3338,7 +3333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H45" authorId="0" shapeId="0">
+    <comment ref="H45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3362,7 +3357,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="0" shapeId="0">
+    <comment ref="C46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin del sistema.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gerente de todas las sucursales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una sucursal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrador de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3386,7 +3477,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0" shapeId="0">
+    <comment ref="H47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huertas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trabajador Jefe de cajas dentro de una agencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3410,7 +3525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment ref="C49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3434,7 +3549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment ref="C52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3458,7 +3573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0" shapeId="0">
+    <comment ref="D52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3482,7 +3597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0" shapeId="0">
+    <comment ref="E52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3506,7 +3621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0" shapeId="0">
+    <comment ref="F52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3530,7 +3645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H51" authorId="0" shapeId="0">
+    <comment ref="H52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3554,7 +3669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0" shapeId="0">
+    <comment ref="C53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3578,7 +3693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D52" authorId="0" shapeId="0">
+    <comment ref="D53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3602,7 +3717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0" shapeId="0">
+    <comment ref="E53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3626,7 +3741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0" shapeId="0">
+    <comment ref="F53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3650,7 +3765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0">
+    <comment ref="C54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3674,7 +3789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D53" authorId="0" shapeId="0">
+    <comment ref="D54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3698,7 +3813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="0" shapeId="0">
+    <comment ref="E54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3722,7 +3837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="0" shapeId="0">
+    <comment ref="F54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3746,7 +3861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0">
+    <comment ref="C55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3770,7 +3885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0">
+    <comment ref="D55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3794,7 +3909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0">
+    <comment ref="E55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3818,7 +3933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F54" authorId="0" shapeId="0">
+    <comment ref="F55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3842,7 +3957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G54" authorId="0" shapeId="0">
+    <comment ref="G55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3866,7 +3981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H54" authorId="0" shapeId="0">
+    <comment ref="H55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3890,7 +4005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I54" authorId="0" shapeId="0">
+    <comment ref="I55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3914,7 +4029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0" shapeId="0">
+    <comment ref="C56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3938,7 +4053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D55" authorId="0" shapeId="0">
+    <comment ref="D56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3962,7 +4077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0" shapeId="0">
+    <comment ref="E56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3986,7 +4101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0" shapeId="0">
+    <comment ref="F56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4010,7 +4125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G55" authorId="0" shapeId="0">
+    <comment ref="G56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4034,7 +4149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H55" authorId="0" shapeId="0">
+    <comment ref="H56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4058,7 +4173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I55" authorId="0" shapeId="0">
+    <comment ref="I56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4082,7 +4197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0">
+    <comment ref="C57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4106,7 +4221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0">
+    <comment ref="D57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4130,7 +4245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0">
+    <comment ref="E57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4154,7 +4269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0" shapeId="0">
+    <comment ref="F57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4178,7 +4293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0">
+    <comment ref="C58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4202,7 +4317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D57" authorId="0" shapeId="0">
+    <comment ref="D58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4226,7 +4341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E57" authorId="0" shapeId="0">
+    <comment ref="E58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4250,7 +4365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="0" shapeId="0">
+    <comment ref="F58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4274,7 +4389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H57" authorId="0" shapeId="0">
+    <comment ref="H58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4298,7 +4413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C58" authorId="0" shapeId="0">
+    <comment ref="C59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4322,7 +4437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D58" authorId="0" shapeId="0">
+    <comment ref="D59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4346,7 +4461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E58" authorId="0" shapeId="0">
+    <comment ref="E59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4370,7 +4485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F58" authorId="0" shapeId="0">
+    <comment ref="F59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4394,7 +4509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H58" authorId="0" shapeId="0">
+    <comment ref="H59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4418,7 +4533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0">
+    <comment ref="C60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4447,7 +4562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="121">
   <si>
     <t>CODIGO</t>
   </si>
@@ -4804,6 +4919,12 @@
   </si>
   <si>
     <t>app.organizacion.rrhh.editarTrabajador.asignarCaja</t>
+  </si>
+  <si>
+    <t>app.organizacion.estructura.editarCaja.bovedas</t>
+  </si>
+  <si>
+    <t>falta</t>
   </si>
 </sst>
 </file>
@@ -4991,7 +5112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5026,7 +5147,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5235,10 +5356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6222,7 +6343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -6251,7 +6372,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -6280,7 +6401,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -6309,7 +6430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -6338,7 +6459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -6367,10 +6488,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>71</v>
@@ -6383,7 +6504,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>82</v>
       </c>
@@ -6412,7 +6533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>83</v>
       </c>
@@ -6441,7 +6562,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -6470,7 +6591,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -6499,7 +6620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -6528,7 +6649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
@@ -6557,24 +6678,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>81</v>
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>81</v>
@@ -6586,115 +6707,145 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="C48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s">
         <v>10</v>
       </c>
+      <c r="J48" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>80</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>81</v>
+      <c r="D49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="C50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -6711,19 +6862,19 @@
       <c r="G52" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>81</v>
+      <c r="H52" t="s">
+        <v>11</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -6747,12 +6898,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -6766,22 +6917,22 @@
       <c r="F54" t="s">
         <v>13</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" t="s">
-        <v>10</v>
+      <c r="G54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -6805,12 +6956,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -6824,22 +6975,22 @@
       <c r="F56" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>81</v>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -6856,19 +7007,19 @@
       <c r="G57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H57" t="s">
-        <v>11</v>
+      <c r="H57" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -6892,55 +7043,90 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>81</v>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>81</v>
+      <c r="H59" t="s">
+        <v>11</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="7" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I63" t="s">
         <v>116</v>
       </c>
     </row>
